--- a/0_File/1_Data/006_Buff表.xlsx
+++ b/0_File/1_Data/006_Buff表.xlsx
@@ -1,21 +1,305 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="BuffData" sheetId="1" r:id="rId1"/>
+    <sheet name="BuffEffectData" sheetId="2" r:id="rId2"/>
+    <sheet name="#欄位說明" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>n_ID</t>
+  </si>
+  <si>
+    <t>n_Name</t>
+  </si>
+  <si>
+    <t>n_Description</t>
+  </si>
+  <si>
+    <t>s_BuffIcon</t>
+  </si>
+  <si>
+    <t>n_BuffGroup</t>
+  </si>
+  <si>
+    <t>n_Level</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>效果名稱</t>
+  </si>
+  <si>
+    <t>效果描述</t>
+  </si>
+  <si>
+    <t>效果Icon</t>
+  </si>
+  <si>
+    <t>群組編號</t>
+  </si>
+  <si>
+    <t>等級</t>
+  </si>
+  <si>
+    <t>編號</t>
+  </si>
+  <si>
+    <t>名稱</t>
+  </si>
+  <si>
+    <t>說明</t>
+  </si>
+  <si>
+    <t>效果數值</t>
+  </si>
+  <si>
+    <t>參數1填寫說明</t>
+  </si>
+  <si>
+    <t>參數2填寫說明</t>
+  </si>
+  <si>
+    <t>參數3填寫說明</t>
+  </si>
+  <si>
+    <t>參數陣列填寫說明</t>
+  </si>
+  <si>
+    <t>血量+</t>
+  </si>
+  <si>
+    <t>上升定值</t>
+  </si>
+  <si>
+    <t>傷害類型</t>
+  </si>
+  <si>
+    <t>血量+%</t>
+  </si>
+  <si>
+    <t>上升百分比</t>
+  </si>
+  <si>
+    <t>0=依照現有生命值 1=依照最大生命值</t>
+  </si>
+  <si>
+    <t>攻擊力+</t>
+  </si>
+  <si>
+    <t>攻擊力+%</t>
+  </si>
+  <si>
+    <t>移動速度+</t>
+  </si>
+  <si>
+    <t>移動速度+%</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負面效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量-</t>
+  </si>
+  <si>
+    <t>下降定值</t>
+  </si>
+  <si>
+    <t>數值</t>
+  </si>
+  <si>
+    <t>血量-%</t>
+  </si>
+  <si>
+    <t>下降百分比</t>
+  </si>
+  <si>
+    <t>攻擊力-</t>
+  </si>
+  <si>
+    <t>攻擊力-%</t>
+  </si>
+  <si>
+    <t>移動速度-</t>
+  </si>
+  <si>
+    <t>移動速度-%</t>
+  </si>
+  <si>
+    <t>通用規則說明</t>
+  </si>
+  <si>
+    <t>註1</t>
+  </si>
+  <si>
+    <t>n_xxxx</t>
+  </si>
+  <si>
+    <t>n代表這格資料為單數</t>
+  </si>
+  <si>
+    <t>註2</t>
+  </si>
+  <si>
+    <t>an_xxx</t>
+  </si>
+  <si>
+    <t>an代表這格資料為陣列</t>
+  </si>
+  <si>
+    <t>註3</t>
+  </si>
+  <si>
+    <t>代表該欄位或工作表不輸出</t>
+  </si>
+  <si>
+    <t>欄位格式</t>
+  </si>
+  <si>
+    <t>欄位英文</t>
+  </si>
+  <si>
+    <t>欄位中文</t>
+  </si>
+  <si>
+    <t>欄位內容說明</t>
+  </si>
+  <si>
+    <t>BuffData</t>
+  </si>
+  <si>
+    <t>n_StackCount</t>
+  </si>
+  <si>
+    <t>n_Effect</t>
+  </si>
+  <si>
+    <t>n_EffectValue</t>
+  </si>
+  <si>
+    <t>n_EffectParam_1</t>
+  </si>
+  <si>
+    <t>n_EffectParam_2</t>
+  </si>
+  <si>
+    <t>n_EffectParam_3</t>
+  </si>
+  <si>
+    <t>n_Chance</t>
+  </si>
+  <si>
+    <t>n_TriggerTiming</t>
+  </si>
+  <si>
+    <t>n_TriggerParam</t>
+  </si>
+  <si>
+    <t>s_TriggerFxName</t>
+  </si>
+  <si>
+    <t>n_TriggerFxDuration</t>
+  </si>
+  <si>
+    <t>n_TriggerFxSonud</t>
+  </si>
+  <si>
+    <t>s_RemoveTiming</t>
+  </si>
+  <si>
+    <t>an_RemoveParams</t>
+  </si>
+  <si>
+    <t>an_NextBuffs</t>
+  </si>
+  <si>
+    <t>堆疊數量</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>效果參數1</t>
+  </si>
+  <si>
+    <t>效果參數2</t>
+  </si>
+  <si>
+    <t>效果參數3</t>
+  </si>
+  <si>
+    <t>觸發機率</t>
+  </si>
+  <si>
+    <t>觸發時機</t>
+  </si>
+  <si>
+    <t>觸發參數</t>
+  </si>
+  <si>
+    <t>觸發時的特效名稱</t>
+  </si>
+  <si>
+    <t>觸發時的特效持續時間</t>
+  </si>
+  <si>
+    <t>觸發時的特效音效</t>
+  </si>
+  <si>
+    <t>移除時機</t>
+  </si>
+  <si>
+    <t>移除時機參數</t>
+  </si>
+  <si>
+    <t>結束後新增的下一個Buff</t>
+  </si>
+  <si>
+    <t>BuffEffectData</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -23,16 +307,143 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF2CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -40,23 +451,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Excel Built-in Accent1" xfId="5"/>
+    <cellStyle name="Excel Built-in Normal" xfId="4"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般 3" xfId="3"/>
+    <cellStyle name="一般 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +655,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +863,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>1002</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1004</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>1005</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>1006</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="11"/>
+    <col min="3" max="3" width="22.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>